--- a/biology/Botanique/Geastraceae/Geastraceae.xlsx
+++ b/biology/Botanique/Geastraceae/Geastraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Geastraceae sont une famille de champignons basidiomycètes. Ils comprennent environ 64 espèces réparties entre 8 genres dont Geastrum et Myriostoma.
 </t>
@@ -511,10 +523,12 @@
           <t>Taxonomie et systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Geastraceae sont décrits par le mycologue Italien August Carl Joseph Corda en 1842 et a pour synonyme Sphaerobolaceae[1]. 
-Les anciennes classifications placent cette famille parmi les champignons gastéromycètes, dans l'ordre des Lycoperdales puis, plus récemment, dans celui des Phallales[2]. En 2010, la famille est considérée comme l'unique taxon de l'ordre des Geastrales[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Geastraceae sont décrits par le mycologue Italien August Carl Joseph Corda en 1842 et a pour synonyme Sphaerobolaceae. 
+Les anciennes classifications placent cette famille parmi les champignons gastéromycètes, dans l'ordre des Lycoperdales puis, plus récemment, dans celui des Phallales. En 2010, la famille est considérée comme l'unique taxon de l'ordre des Geastrales. 
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fructifications de plusieurs espèces, comme l'Astrée hygrométrique, sont hygroscopiques : par temps sec, les « pétales » sèchent et se replient autour du sac souple portant les spores, en le protégeant. Souvent, le champignon dans cet état se détache du sol et roule comme un virevoltant poussé par le vent. Lorsque le temps redevient humide, les pétales se déploient vers l'arrière et le sac se soulève du sol. Cela permet aux gouttes de pluie ou aux animaux de le frapper et de disperser les spores, qui sont éparpillées quand il y a suffisamment d'humidité pour germer.
 </t>
@@ -574,7 +590,9 @@
           <t>Relations avec les Hommes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Un membre de cette famille, Sphaerobolus stellatus, est considéré comme nuisible du bâtiment : il colonise les paillis en bois et peut projeter des spores qui font de petites taches noires sur les surfaces peintes environnantes. 
 </t>
@@ -605,14 +623,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Myriostoma coliforme, du genre Myriostoma
 			Radiigera cinnamomea du genre Radiigera
 			Schenella simplex du genre Schenella
 			Sphaerobolus stellatus
-Liste des genres selon Index Fungorum                                      (18 octobre 2021)[4] :
+Liste des genres selon Index Fungorum                                      (18 octobre 2021) :
 Cycloderma
 Geasteroides W.H.Long, 1917
 Geasteropsis Hollós, 1903
